--- a/example-output/EXAMPLE_HOSPITAL/transmission-analysis_SNPcutoff20_Days45/CoreSNPclusters_ST39_SNPcutoff20_Days45.xlsx
+++ b/example-output/EXAMPLE_HOSPITAL/transmission-analysis_SNPcutoff20_Days45/CoreSNPclusters_ST39_SNPcutoff20_Days45.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -77,7 +77,13 @@
     <t xml:space="preserve">2020.24</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXM2170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020.38</t>
   </si>
   <si>
     <t xml:space="preserve">EXM2144</t>
@@ -90,9 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -129,7 +133,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,8 +143,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:M4" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:M4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:M5" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:M5"/>
   <tableColumns count="13">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="label"/>
@@ -576,7 +580,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44104</v>
+        <v>44087</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -591,7 +595,7 @@
         <v>2020</v>
       </c>
       <c r="H4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
@@ -606,6 +610,47 @@
         <v>18</v>
       </c>
       <c r="M4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>44104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>39</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H5" t="n">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
         <v>18</v>
       </c>
     </row>
